--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -73,12 +73,28 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>180000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -424,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -433,57 +449,69 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>14</v>
       </c>
     </row>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>180000</t>
+  </si>
+  <si>
+    <t>Jones</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>5</v>
